--- a/data/siRNA_bench/JBioSeq_siRNA_PAX3_jbst.xlsx
+++ b/data/siRNA_bench/JBioSeq_siRNA_PAX3_jbst.xlsx
@@ -528,12 +528,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_195</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AAACGGAAAGGCGAGTGCGGC</t>
+          <t>AATTATATCCAGGTGAAGGCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['AAACGGAAAGGCGAGTGCGGC']</t>
+          <t>['AATTATATCCAGGTGAAGGCG']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>GCCGCACTCGCCTTTCCGTTT</t>
+          <t>CGCCTTCACCTGGATATAATT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.86</v>
+        <v>42.86</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -610,12 +610,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_325</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AACGGAAAGGCGAGTGCGGCG</t>
+          <t>AAATTATATCCAGGTGAAGGC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['AACGGAAAGGCGAGTGCGGCG']</t>
+          <t>['AAATTATATCCAGGTGAAGGC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CGCCGCACTCGCCTTTCCGTT</t>
+          <t>GCCTTCACCTGGATATAATTT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.62</v>
+        <v>38.1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_36</t>
+          <t>RNAi_499</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATGACCCTCGGGAACTATCCG</t>
+          <t>TTTACTTCTCAGGATGCGGCT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ATGACCCTCGGGAACTATCCG']</t>
+          <t>['TTTACTTCTCAGGATGCGGCT']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CGGATAGTTCCCGAGGGTCAT</t>
+          <t>AGCCGCATCCTGAGAAGTAAA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -760,26 +760,26 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.81</v>
+        <v>47.62</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TTCCAGCGGGAACCCGCTACG</t>
+          <t>ATTTACTTCTCAGGATGCGGC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['TTCCAGCGGGAACCCGCTACG']</t>
+          <t>['ATTTACTTCTCAGGATGCGGC']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CGTAGCGGGTTCCCGCTGGAA</t>
+          <t>GCCGCATCCTGAGAAGTAAAT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.57</v>
+        <v>47.62</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -856,12 +856,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_88</t>
+          <t>RNAi_82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AGGCGTTGTCACCTGCTTGGG</t>
+          <t>AATTTACTTCTCAGGATGCGG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['AGGCGTTGTCACCTGCTTGGG']</t>
+          <t>['AATTTACTTCTCAGGATGCGG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CCCAAGCAGGTGACAACGCCT</t>
+          <t>CCGCATCCTGAGAAGTAAATT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.1</v>
+        <v>42.86</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -938,12 +938,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_28</t>
+          <t>RNAi_265</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TCTCCTCCTGTGGTGACACCG</t>
+          <t>TTCAGAGTCAATATCAGAGCC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['TCTCCTCCTGTGGTGACACCG']</t>
+          <t>['TTCAGAGTCAATATCAGAGCC']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CGGTGTCACCACAGGAGGAGA</t>
+          <t>GGCTCTGATATTGACTCTGAA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1006,26 +1006,26 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.81</v>
+        <v>42.86</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_29</t>
+          <t>RNAi_346</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AGTCTGGGCAAATGTTCCAGC</t>
+          <t>TTCTTCTCGCTTTCCTCTGCC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['AGTCTGGGCAAATGTTCCAGC']</t>
+          <t>['TTCTTCTCGCTTTCCTCTGCC']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>GCTGGAACATTTGCCCAGACT</t>
+          <t>GGCAGAGGAAAGCGAGAAGAA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1088,26 +1088,26 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.57</v>
+        <v>52.38</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_68</t>
+          <t>RNAi_146</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GTCTGGGCAAATGTTCCAGCG</t>
+          <t>AAGTTTGGTACGAGTCTGGGC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['GTCTGGGCAAATGTTCCAGCG']</t>
+          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CGCTGGAACATTTGCCCAGAC</t>
+          <t>GCCCAGACTCGTACCAAACTT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.33</v>
+        <v>52.38</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_42</t>
+          <t>RNAi_20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTTGCTGCCGCCGATGGCACC</t>
+          <t>TATCCAGGTGAAGGCGAAACG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['CTTGCTGCCGCCGATGGCACC']</t>
+          <t>['TATCCAGGTGAAGGCGAAACG']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>GGTGCCATCGGCGGCAGCAAG</t>
+          <t>CGTTTCGCCTTCACCTGGATA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1252,26 +1252,26 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.57</v>
+        <v>52.38</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>5`UTR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_64</t>
+          <t>RNAi_21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CTTGCCCAAACCAGTCTGGGT</t>
+          <t>TGAAGGCGAAACGGAAAGGCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['CTTGCCCAAACCAGTCTGGGT']</t>
+          <t>['TGAAGGCGAAACGGAAAGGCG']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ACCCAGACTGGTTTGGGCAAG</t>
+          <t>CGCCTTTCCGTTTCGCCTTCA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1334,14 +1334,14 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.81</v>
+        <v>57.14</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>5`UTR</t>
         </is>
       </c>
     </row>
